--- a/RMPP/Exe9.3B.xlsx
+++ b/RMPP/Exe9.3B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/MyPortfolio/RMPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EFD554-6137-1246-A93E-A9891C579423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122B9E5F-BA39-494A-8B2F-B78090303AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
   <si>
     <t>Diet</t>
   </si>
@@ -90,6 +90,12 @@
   <si>
     <t>Diet B</t>
   </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Diet A Appears to offer the people on it better outcomes as more people have lost weight on Diet A then Diet B that being said the number of people who gain weight on Diet B is greater than the number who gain weight on Diet A so from this we can conclude that diet A is superior to Diet B for people who wish to lose weight.</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +184,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,27 +1036,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="9" max="9" width="36.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="O1" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="O2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1136,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1164,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1188,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1216,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1244,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1272,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1293,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1331,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1339,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
